--- a/biology/Zoologie/Ceriantharia/Ceriantharia.xlsx
+++ b/biology/Zoologie/Ceriantharia/Ceriantharia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cérianthaires, ou « cérianthes » (Ceriantharia) sont une des trois sous-classes de cnidaires anthozoaires, d'aspect proche des anémones de mer. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cérianthes peuvent facilement se confondre avec des anémones de mer ou des vers tubicoles. Ils sont protégés par un tube mou et large planté dans le substrat, fait de nématocystes spéciaux appelés ptychocystes, dans lequel ils disparaissent lors d'une menace. Il s'en élève un panache de bras longs et effilés, souvent très nombreux, ce qui les distingue (comme le tube caractéristique) des anémones - dont ils sont en réalité assez éloignés d'un point de vue phylogénétique. Les tentacules sont de deux tailles : les périphériques sont longs, ceux situés vers le centre (où se trouve la bouche) plus courts ; ils peuvent arborer des couleurs vives, les deux types de tentacules étant souvent de couleurs différentes. Ce sont des polypes généralement solitaires, et ne formant presque jamais de colonies soudées. 
 L'espèce la plus courante sur les côtes européennes est le grand cérianthe, Cerianthus membranaceus.
@@ -543,7 +557,9 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Arachnanthus oligopodus
